--- a/results/I3_N5_M2_T15_C200_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>844.3335113730651</v>
+        <v>95.25725746793464</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8900001049041748</v>
+        <v>0.1930000782012939</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.454165271134051e-05</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.20351137317892</v>
+        <v>19.25725746793465</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.534770341125994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.534770341125994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>431.3899999998861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>389.74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.16307414718502</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>12.37739353073906</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.224115997544416</v>
+        <v>14.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5049999999846</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3399999999856</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4650000000001</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1126,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1137,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1148,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>215.1899999999996</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1159,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>213.505000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1170,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>218.9350000000013</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>223.575000000001</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>219.1699999999992</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1203,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>218.5349999999847</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1214,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>219.114999999985</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1225,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>231.6349999999999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1236,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>223.0449999999841</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1247,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>232.9899999999861</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1258,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1269,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44000000000045</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1280,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.2199999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1291,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36499999999999</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1302,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1313,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.3799999999846</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
@@ -1324,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999998598</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
@@ -1335,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999998616</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
@@ -1346,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999998488</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
@@ -1357,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999998561</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -1368,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>215.1900000000006</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>213.5050000000011</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
@@ -1390,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>218.9350000000014</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
@@ -1401,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>223.5750000000008</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36">
@@ -1412,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>219.1700000000001</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -1423,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>218.5349999999844</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1434,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>219.1149999999857</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1445,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>231.6349999999998</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1456,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>223.0449999999838</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1467,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>232.9899999999855</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.19000000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1525,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.50500000000107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1536,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18.93500000000137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1547,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>23.57500000000078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1558,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19.17000000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1569,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.5349999999844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1580,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.11499999998567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1591,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>31.63499999999973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1602,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>23.04499999998383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1613,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>32.98999999998552</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1671,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1682,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1693,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1704,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1715,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1726,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1737,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1748,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1759,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1770,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1781,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1792,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1814,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1825,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1836,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1858,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1869,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1880,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1891,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1902,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1913,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1924,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1963,116 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
